--- a/excel/2025-05-26_matched.xlsx
+++ b/excel/2025-05-26_matched.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17140" activeTab="5"/>
+    <workbookView windowHeight="17140" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="仓储" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="1132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2511" uniqueCount="1135">
   <si>
     <t>user</t>
   </si>
@@ -1285,6 +1285,15 @@
   </si>
   <si>
     <t>Tommy Sistapurea</t>
+  </si>
+  <si>
+    <t>测试101</t>
+  </si>
+  <si>
+    <t>测试102</t>
+  </si>
+  <si>
+    <t>测试103</t>
   </si>
   <si>
     <t>Robon Lani</t>
@@ -3448,7 +3457,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3459,13 +3468,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3933,28 +3935,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3963,118 +3968,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4776,7 +4778,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4785,7 +4787,7 @@
         <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -4793,7 +4795,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4802,7 +4804,7 @@
         <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -4810,7 +4812,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4819,7 +4821,7 @@
         <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
@@ -4827,7 +4829,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4836,7 +4838,7 @@
         <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -4844,7 +4846,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4853,7 +4855,7 @@
         <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -4861,7 +4863,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -4870,7 +4872,7 @@
         <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -4878,7 +4880,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -4887,7 +4889,7 @@
         <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -4895,7 +4897,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -4904,7 +4906,7 @@
         <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -4912,7 +4914,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -4921,7 +4923,7 @@
         <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -4929,7 +4931,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -4938,7 +4940,7 @@
         <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -4946,7 +4948,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -4955,7 +4957,7 @@
         <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -4963,7 +4965,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -4972,7 +4974,7 @@
         <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -4980,7 +4982,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -4989,7 +4991,7 @@
         <v>109</v>
       </c>
       <c r="D14" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -4997,7 +4999,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -5014,7 +5016,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -5023,7 +5025,7 @@
         <v>109</v>
       </c>
       <c r="D16" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -5031,7 +5033,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -5040,7 +5042,7 @@
         <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -5048,7 +5050,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -5057,7 +5059,7 @@
         <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -5065,7 +5067,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -5074,7 +5076,7 @@
         <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -5082,7 +5084,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -5091,7 +5093,7 @@
         <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -5099,7 +5101,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -5108,7 +5110,7 @@
         <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -5116,7 +5118,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -5125,7 +5127,7 @@
         <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -5133,7 +5135,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -5142,7 +5144,7 @@
         <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -5150,7 +5152,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -5159,7 +5161,7 @@
         <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -5167,7 +5169,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -5176,7 +5178,7 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -5184,7 +5186,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -5193,7 +5195,7 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -5201,7 +5203,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -5210,7 +5212,7 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -5218,7 +5220,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -5227,7 +5229,7 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -5235,7 +5237,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -5244,7 +5246,7 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -5252,7 +5254,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -5261,7 +5263,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -5269,7 +5271,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -5278,7 +5280,7 @@
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -5286,7 +5288,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -5295,7 +5297,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -5303,7 +5305,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -5312,7 +5314,7 @@
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -5320,7 +5322,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -5337,7 +5339,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -5346,7 +5348,7 @@
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -5354,7 +5356,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -5371,7 +5373,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -5380,7 +5382,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -5388,7 +5390,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5405,7 +5407,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5422,7 +5424,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5439,7 +5441,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5448,7 +5450,7 @@
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
@@ -5456,7 +5458,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5465,7 +5467,7 @@
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
@@ -5473,7 +5475,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5482,7 +5484,7 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
@@ -5490,7 +5492,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5499,7 +5501,7 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
@@ -5507,7 +5509,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5516,7 +5518,7 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
@@ -5524,7 +5526,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5533,7 +5535,7 @@
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
@@ -5541,7 +5543,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5550,7 +5552,7 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
@@ -5558,7 +5560,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5567,7 +5569,7 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
@@ -5575,7 +5577,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -5584,7 +5586,7 @@
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
@@ -5592,7 +5594,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -5601,7 +5603,7 @@
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
@@ -5609,7 +5611,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -5618,7 +5620,7 @@
         <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -5626,7 +5628,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -5635,7 +5637,7 @@
         <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
@@ -5684,7 +5686,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5701,7 +5703,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5718,7 +5720,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -5735,7 +5737,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -5744,7 +5746,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -5752,7 +5754,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -5761,7 +5763,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -5769,7 +5771,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5778,7 +5780,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -5786,7 +5788,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5803,7 +5805,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -5812,7 +5814,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -5820,7 +5822,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -5837,7 +5839,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -5846,7 +5848,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -5854,7 +5856,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -5863,7 +5865,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -5871,7 +5873,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -5880,7 +5882,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -5888,7 +5890,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -5897,7 +5899,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -5905,7 +5907,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -5922,7 +5924,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -5939,7 +5941,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -5956,7 +5958,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -5973,7 +5975,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -5982,7 +5984,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -5990,7 +5992,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -5999,7 +6001,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -6007,7 +6009,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -6024,7 +6026,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -6041,7 +6043,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -6058,7 +6060,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -6067,7 +6069,7 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -6075,7 +6077,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -6084,7 +6086,7 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -6092,7 +6094,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -6101,7 +6103,7 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -6109,7 +6111,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -6126,7 +6128,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -6143,7 +6145,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -6152,7 +6154,7 @@
         <v>121</v>
       </c>
       <c r="D29" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -6160,7 +6162,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -6169,7 +6171,7 @@
         <v>121</v>
       </c>
       <c r="D30" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -6177,7 +6179,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -6194,7 +6196,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -6203,7 +6205,7 @@
         <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -6211,7 +6213,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -6220,7 +6222,7 @@
         <v>121</v>
       </c>
       <c r="D33" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -6228,7 +6230,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -6237,7 +6239,7 @@
         <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
@@ -6245,7 +6247,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -6254,7 +6256,7 @@
         <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="E35" t="s">
         <v>28</v>
@@ -6262,7 +6264,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -6271,7 +6273,7 @@
         <v>121</v>
       </c>
       <c r="D36" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
@@ -6279,7 +6281,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -6288,7 +6290,7 @@
         <v>121</v>
       </c>
       <c r="D37" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -6296,7 +6298,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -6305,7 +6307,7 @@
         <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -6313,7 +6315,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -6322,7 +6324,7 @@
         <v>121</v>
       </c>
       <c r="D39" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="E39" t="s">
         <v>28</v>
@@ -6330,7 +6332,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -6339,7 +6341,7 @@
         <v>121</v>
       </c>
       <c r="D40" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="E40" t="s">
         <v>28</v>
@@ -6347,7 +6349,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -6356,7 +6358,7 @@
         <v>121</v>
       </c>
       <c r="D41" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
@@ -6364,7 +6366,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -6373,7 +6375,7 @@
         <v>121</v>
       </c>
       <c r="D42" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
@@ -6381,7 +6383,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -6390,7 +6392,7 @@
         <v>121</v>
       </c>
       <c r="D43" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
@@ -6398,7 +6400,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -6407,7 +6409,7 @@
         <v>109</v>
       </c>
       <c r="D44" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
@@ -6415,7 +6417,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -6424,7 +6426,7 @@
         <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="E45" t="s">
         <v>28</v>
@@ -6432,7 +6434,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -6441,7 +6443,7 @@
         <v>109</v>
       </c>
       <c r="D46" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="E46" t="s">
         <v>28</v>
@@ -6449,7 +6451,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -6458,7 +6460,7 @@
         <v>109</v>
       </c>
       <c r="D47" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="E47" t="s">
         <v>28</v>
@@ -6466,7 +6468,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -6475,7 +6477,7 @@
         <v>109</v>
       </c>
       <c r="D48" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
@@ -6483,7 +6485,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6492,7 +6494,7 @@
         <v>109</v>
       </c>
       <c r="D49" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E49" t="s">
         <v>28</v>
@@ -6500,7 +6502,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -6509,7 +6511,7 @@
         <v>109</v>
       </c>
       <c r="D50" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="E50" t="s">
         <v>28</v>
@@ -6517,7 +6519,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -6526,7 +6528,7 @@
         <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -6534,7 +6536,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -6543,7 +6545,7 @@
         <v>109</v>
       </c>
       <c r="D52" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="E52" t="s">
         <v>28</v>
@@ -6551,7 +6553,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -6560,7 +6562,7 @@
         <v>109</v>
       </c>
       <c r="D53" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
@@ -6568,7 +6570,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -6577,7 +6579,7 @@
         <v>109</v>
       </c>
       <c r="D54" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="E54" t="s">
         <v>28</v>
@@ -6585,7 +6587,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -6594,7 +6596,7 @@
         <v>109</v>
       </c>
       <c r="D55" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
@@ -6602,7 +6604,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -6611,7 +6613,7 @@
         <v>109</v>
       </c>
       <c r="D56" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
@@ -6619,7 +6621,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -6628,7 +6630,7 @@
         <v>109</v>
       </c>
       <c r="D57" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -6636,7 +6638,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -6645,7 +6647,7 @@
         <v>109</v>
       </c>
       <c r="D58" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -6653,7 +6655,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -6662,7 +6664,7 @@
         <v>109</v>
       </c>
       <c r="D59" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
@@ -6670,7 +6672,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -6679,7 +6681,7 @@
         <v>109</v>
       </c>
       <c r="D60" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
@@ -6687,7 +6689,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -6704,7 +6706,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -6713,7 +6715,7 @@
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
@@ -6762,7 +6764,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6771,7 +6773,7 @@
         <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -6779,7 +6781,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6788,7 +6790,7 @@
         <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -6796,7 +6798,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6805,7 +6807,7 @@
         <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -6813,7 +6815,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6822,7 +6824,7 @@
         <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -6830,7 +6832,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6839,7 +6841,7 @@
         <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -6847,7 +6849,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6856,7 +6858,7 @@
         <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -6864,7 +6866,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -6873,7 +6875,7 @@
         <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -6881,7 +6883,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6890,7 +6892,7 @@
         <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -6898,7 +6900,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -6907,7 +6909,7 @@
         <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
@@ -6915,7 +6917,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -6932,7 +6934,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -6941,7 +6943,7 @@
         <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -6949,7 +6951,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -6958,7 +6960,7 @@
         <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -6966,7 +6968,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6975,7 +6977,7 @@
         <v>121</v>
       </c>
       <c r="D14" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -6983,7 +6985,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -6992,7 +6994,7 @@
         <v>121</v>
       </c>
       <c r="D15" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -7000,7 +7002,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -7009,7 +7011,7 @@
         <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -7017,7 +7019,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -7026,7 +7028,7 @@
         <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -7034,7 +7036,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -7043,7 +7045,7 @@
         <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -7051,7 +7053,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -7060,7 +7062,7 @@
         <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -7068,7 +7070,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -7077,7 +7079,7 @@
         <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="E20" t="s">
         <v>28</v>
@@ -7085,7 +7087,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -7094,7 +7096,7 @@
         <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -7102,7 +7104,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -7111,7 +7113,7 @@
         <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -7119,7 +7121,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -7128,7 +7130,7 @@
         <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -7136,7 +7138,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -7145,7 +7147,7 @@
         <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -7153,7 +7155,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -7162,7 +7164,7 @@
         <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -7170,7 +7172,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -7179,7 +7181,7 @@
         <v>109</v>
       </c>
       <c r="D26" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -7187,7 +7189,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -7196,7 +7198,7 @@
         <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -7204,7 +7206,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -7213,7 +7215,7 @@
         <v>109</v>
       </c>
       <c r="D28" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -7221,7 +7223,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -7238,7 +7240,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -7247,7 +7249,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -7255,7 +7257,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -7264,7 +7266,7 @@
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -7272,7 +7274,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -7281,7 +7283,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -7289,7 +7291,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -7306,7 +7308,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -7315,7 +7317,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
@@ -7323,7 +7325,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -7340,7 +7342,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -7357,7 +7359,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -7366,7 +7368,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -7374,7 +7376,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -7383,7 +7385,7 @@
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -7391,7 +7393,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -7400,7 +7402,7 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
@@ -7408,7 +7410,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -7417,7 +7419,7 @@
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
@@ -7466,7 +7468,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7475,7 +7477,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -7483,7 +7485,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -7492,7 +7494,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -7500,7 +7502,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -7509,7 +7511,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -7517,7 +7519,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -7526,7 +7528,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -7534,7 +7536,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -7551,7 +7553,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -7568,7 +7570,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7585,7 +7587,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -7594,7 +7596,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -7602,7 +7604,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -7619,7 +7621,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -7636,7 +7638,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -7645,7 +7647,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -7653,7 +7655,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -7662,7 +7664,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -7670,7 +7672,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -7679,7 +7681,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -7687,7 +7689,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -7696,7 +7698,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -7704,7 +7706,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -7713,7 +7715,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -7721,7 +7723,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -7738,7 +7740,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -7747,7 +7749,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -7755,7 +7757,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -7764,7 +7766,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -7772,7 +7774,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -7781,7 +7783,7 @@
         <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -7789,7 +7791,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -7798,7 +7800,7 @@
         <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -7806,7 +7808,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -7823,7 +7825,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -7832,7 +7834,7 @@
         <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -7840,7 +7842,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -7849,7 +7851,7 @@
         <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -7857,7 +7859,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -7866,7 +7868,7 @@
         <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -7874,7 +7876,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -7883,7 +7885,7 @@
         <v>109</v>
       </c>
       <c r="D26" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -7891,7 +7893,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -7900,7 +7902,7 @@
         <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -7908,7 +7910,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -7917,7 +7919,7 @@
         <v>109</v>
       </c>
       <c r="D28" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -7925,7 +7927,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -7934,7 +7936,7 @@
         <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>765</v>
+        <v>768</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -7942,7 +7944,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -7951,7 +7953,7 @@
         <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -7959,7 +7961,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -7968,7 +7970,7 @@
         <v>109</v>
       </c>
       <c r="D31" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -7976,7 +7978,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -7985,7 +7987,7 @@
         <v>109</v>
       </c>
       <c r="D32" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -7993,7 +7995,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -8002,7 +8004,7 @@
         <v>109</v>
       </c>
       <c r="D33" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -8010,7 +8012,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -8019,7 +8021,7 @@
         <v>109</v>
       </c>
       <c r="D34" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
@@ -8027,7 +8029,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -8036,7 +8038,7 @@
         <v>109</v>
       </c>
       <c r="D35" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -8044,7 +8046,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -8053,7 +8055,7 @@
         <v>109</v>
       </c>
       <c r="D36" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
@@ -8061,7 +8063,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -8070,7 +8072,7 @@
         <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -8078,7 +8080,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -8087,7 +8089,7 @@
         <v>109</v>
       </c>
       <c r="D38" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -8095,7 +8097,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -8104,7 +8106,7 @@
         <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
@@ -8112,7 +8114,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -8121,7 +8123,7 @@
         <v>109</v>
       </c>
       <c r="D40" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
@@ -8129,7 +8131,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -8146,7 +8148,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -8155,7 +8157,7 @@
         <v>109</v>
       </c>
       <c r="D42" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
@@ -8163,7 +8165,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -8172,7 +8174,7 @@
         <v>109</v>
       </c>
       <c r="D43" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
@@ -8180,7 +8182,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -8189,7 +8191,7 @@
         <v>109</v>
       </c>
       <c r="D44" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
@@ -8197,7 +8199,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -8206,7 +8208,7 @@
         <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
@@ -8214,7 +8216,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -8223,7 +8225,7 @@
         <v>109</v>
       </c>
       <c r="D46" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
@@ -8231,7 +8233,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -8240,7 +8242,7 @@
         <v>109</v>
       </c>
       <c r="D47" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
@@ -8248,7 +8250,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -8257,7 +8259,7 @@
         <v>109</v>
       </c>
       <c r="D48" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
@@ -8265,7 +8267,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -8274,7 +8276,7 @@
         <v>109</v>
       </c>
       <c r="D49" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
@@ -8282,7 +8284,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -8291,7 +8293,7 @@
         <v>109</v>
       </c>
       <c r="D50" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
@@ -8299,7 +8301,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -8308,7 +8310,7 @@
         <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -8316,7 +8318,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -8325,7 +8327,7 @@
         <v>109</v>
       </c>
       <c r="D52" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
@@ -8333,7 +8335,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -8342,7 +8344,7 @@
         <v>109</v>
       </c>
       <c r="D53" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
@@ -8350,7 +8352,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -8359,7 +8361,7 @@
         <v>109</v>
       </c>
       <c r="D54" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
@@ -8367,7 +8369,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -8384,7 +8386,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -8393,7 +8395,7 @@
         <v>109</v>
       </c>
       <c r="D56" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
@@ -8401,7 +8403,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -8410,7 +8412,7 @@
         <v>109</v>
       </c>
       <c r="D57" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -8418,7 +8420,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -8427,7 +8429,7 @@
         <v>109</v>
       </c>
       <c r="D58" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -8435,7 +8437,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -8444,7 +8446,7 @@
         <v>109</v>
       </c>
       <c r="D59" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
@@ -8452,7 +8454,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -8461,7 +8463,7 @@
         <v>121</v>
       </c>
       <c r="D60" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
@@ -8469,7 +8471,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -8478,7 +8480,7 @@
         <v>121</v>
       </c>
       <c r="D61" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
@@ -8486,7 +8488,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -8495,7 +8497,7 @@
         <v>121</v>
       </c>
       <c r="D62" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
@@ -8503,7 +8505,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -8512,7 +8514,7 @@
         <v>121</v>
       </c>
       <c r="D63" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
@@ -8520,7 +8522,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -8529,7 +8531,7 @@
         <v>121</v>
       </c>
       <c r="D64" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
@@ -8537,7 +8539,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -8546,7 +8548,7 @@
         <v>121</v>
       </c>
       <c r="D65" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
@@ -8554,7 +8556,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -8563,7 +8565,7 @@
         <v>121</v>
       </c>
       <c r="D66" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
@@ -8571,7 +8573,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -8580,7 +8582,7 @@
         <v>121</v>
       </c>
       <c r="D67" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
@@ -8588,7 +8590,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -8597,7 +8599,7 @@
         <v>121</v>
       </c>
       <c r="D68" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
@@ -8605,7 +8607,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -8614,7 +8616,7 @@
         <v>121</v>
       </c>
       <c r="D69" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
@@ -8622,7 +8624,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -8631,7 +8633,7 @@
         <v>121</v>
       </c>
       <c r="D70" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
@@ -8639,7 +8641,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -8648,7 +8650,7 @@
         <v>109</v>
       </c>
       <c r="D71" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
@@ -8656,7 +8658,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -8665,7 +8667,7 @@
         <v>121</v>
       </c>
       <c r="D72" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
@@ -8673,7 +8675,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -8682,7 +8684,7 @@
         <v>121</v>
       </c>
       <c r="D73" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
@@ -8690,7 +8692,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -8699,7 +8701,7 @@
         <v>121</v>
       </c>
       <c r="D74" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
@@ -8707,7 +8709,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -8716,7 +8718,7 @@
         <v>121</v>
       </c>
       <c r="D75" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
@@ -8724,7 +8726,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -8733,7 +8735,7 @@
         <v>121</v>
       </c>
       <c r="D76" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
@@ -8741,7 +8743,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -8750,7 +8752,7 @@
         <v>121</v>
       </c>
       <c r="D77" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
@@ -8758,7 +8760,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -8767,7 +8769,7 @@
         <v>121</v>
       </c>
       <c r="D78" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
@@ -8775,7 +8777,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -8792,7 +8794,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -8801,7 +8803,7 @@
         <v>121</v>
       </c>
       <c r="D80" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
@@ -8809,7 +8811,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -8818,7 +8820,7 @@
         <v>121</v>
       </c>
       <c r="D81" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
@@ -8826,7 +8828,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -8835,7 +8837,7 @@
         <v>121</v>
       </c>
       <c r="D82" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
@@ -8843,7 +8845,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -8852,7 +8854,7 @@
         <v>121</v>
       </c>
       <c r="D83" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="E83" t="s">
         <v>11</v>
@@ -8860,7 +8862,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -8869,7 +8871,7 @@
         <v>121</v>
       </c>
       <c r="D84" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
@@ -8877,7 +8879,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -8886,7 +8888,7 @@
         <v>121</v>
       </c>
       <c r="D85" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
@@ -8894,7 +8896,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -8903,7 +8905,7 @@
         <v>121</v>
       </c>
       <c r="D86" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
@@ -8911,7 +8913,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -8920,7 +8922,7 @@
         <v>121</v>
       </c>
       <c r="D87" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="E87" t="s">
         <v>11</v>
@@ -8928,7 +8930,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -8937,7 +8939,7 @@
         <v>121</v>
       </c>
       <c r="D88" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
@@ -8945,7 +8947,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -8954,7 +8956,7 @@
         <v>121</v>
       </c>
       <c r="D89" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="E89" t="s">
         <v>11</v>
@@ -8962,7 +8964,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -8971,7 +8973,7 @@
         <v>121</v>
       </c>
       <c r="D90" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="E90" t="s">
         <v>11</v>
@@ -8979,7 +8981,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -8988,7 +8990,7 @@
         <v>121</v>
       </c>
       <c r="D91" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
@@ -8996,7 +8998,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -9005,7 +9007,7 @@
         <v>121</v>
       </c>
       <c r="D92" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
@@ -9013,7 +9015,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -9022,7 +9024,7 @@
         <v>121</v>
       </c>
       <c r="D93" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="E93" t="s">
         <v>11</v>
@@ -9030,7 +9032,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -9039,7 +9041,7 @@
         <v>121</v>
       </c>
       <c r="D94" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="E94" t="s">
         <v>11</v>
@@ -9047,7 +9049,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -9056,7 +9058,7 @@
         <v>121</v>
       </c>
       <c r="D95" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="E95" t="s">
         <v>11</v>
@@ -9064,7 +9066,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -9073,7 +9075,7 @@
         <v>121</v>
       </c>
       <c r="D96" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="E96" t="s">
         <v>11</v>
@@ -9081,7 +9083,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -9090,7 +9092,7 @@
         <v>121</v>
       </c>
       <c r="D97" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="E97" t="s">
         <v>11</v>
@@ -9098,7 +9100,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -9107,7 +9109,7 @@
         <v>121</v>
       </c>
       <c r="D98" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="E98" t="s">
         <v>11</v>
@@ -9115,7 +9117,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -9132,7 +9134,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -9141,7 +9143,7 @@
         <v>121</v>
       </c>
       <c r="D100" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
@@ -9149,7 +9151,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -9158,7 +9160,7 @@
         <v>121</v>
       </c>
       <c r="D101" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
@@ -9166,7 +9168,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -9175,7 +9177,7 @@
         <v>121</v>
       </c>
       <c r="D102" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="E102" t="s">
         <v>11</v>
@@ -9183,7 +9185,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -9200,7 +9202,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -9209,7 +9211,7 @@
         <v>121</v>
       </c>
       <c r="D104" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
@@ -9217,7 +9219,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -9226,7 +9228,7 @@
         <v>121</v>
       </c>
       <c r="D105" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
@@ -9234,7 +9236,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -9243,7 +9245,7 @@
         <v>121</v>
       </c>
       <c r="D106" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
@@ -9251,7 +9253,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -9260,7 +9262,7 @@
         <v>121</v>
       </c>
       <c r="D107" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
@@ -9268,7 +9270,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -9277,7 +9279,7 @@
         <v>121</v>
       </c>
       <c r="D108" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="E108" t="s">
         <v>11</v>
@@ -9285,7 +9287,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -9294,7 +9296,7 @@
         <v>121</v>
       </c>
       <c r="D109" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
@@ -9302,7 +9304,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -9311,7 +9313,7 @@
         <v>121</v>
       </c>
       <c r="D110" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="E110" t="s">
         <v>11</v>
@@ -9319,7 +9321,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -9328,7 +9330,7 @@
         <v>121</v>
       </c>
       <c r="D111" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
@@ -9336,7 +9338,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -9345,7 +9347,7 @@
         <v>121</v>
       </c>
       <c r="D112" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="E112" t="s">
         <v>11</v>
@@ -9353,7 +9355,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -9362,7 +9364,7 @@
         <v>121</v>
       </c>
       <c r="D113" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
@@ -9370,7 +9372,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -9379,7 +9381,7 @@
         <v>121</v>
       </c>
       <c r="D114" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="E114" t="s">
         <v>11</v>
@@ -9387,7 +9389,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -9396,7 +9398,7 @@
         <v>121</v>
       </c>
       <c r="D115" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="E115" t="s">
         <v>11</v>
@@ -9404,7 +9406,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -9413,7 +9415,7 @@
         <v>121</v>
       </c>
       <c r="D116" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="E116" t="s">
         <v>11</v>
@@ -9421,7 +9423,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -9430,7 +9432,7 @@
         <v>121</v>
       </c>
       <c r="D117" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
@@ -9438,7 +9440,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -9455,7 +9457,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -9464,7 +9466,7 @@
         <v>121</v>
       </c>
       <c r="D119" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="E119" t="s">
         <v>11</v>
@@ -9472,7 +9474,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -9481,7 +9483,7 @@
         <v>121</v>
       </c>
       <c r="D120" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
@@ -9489,7 +9491,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -9498,7 +9500,7 @@
         <v>121</v>
       </c>
       <c r="D121" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="E121" t="s">
         <v>11</v>
@@ -9506,7 +9508,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -9515,7 +9517,7 @@
         <v>121</v>
       </c>
       <c r="D122" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="E122" t="s">
         <v>11</v>
@@ -9523,7 +9525,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -9532,7 +9534,7 @@
         <v>121</v>
       </c>
       <c r="D123" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="E123" t="s">
         <v>11</v>
@@ -9540,7 +9542,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -9549,7 +9551,7 @@
         <v>121</v>
       </c>
       <c r="D124" t="s">
-        <v>948</v>
+        <v>951</v>
       </c>
       <c r="E124" t="s">
         <v>11</v>
@@ -9557,7 +9559,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -9566,7 +9568,7 @@
         <v>121</v>
       </c>
       <c r="D125" t="s">
-        <v>950</v>
+        <v>953</v>
       </c>
       <c r="E125" t="s">
         <v>11</v>
@@ -9574,7 +9576,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>951</v>
+        <v>954</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -9583,7 +9585,7 @@
         <v>121</v>
       </c>
       <c r="D126" t="s">
-        <v>952</v>
+        <v>955</v>
       </c>
       <c r="E126" t="s">
         <v>11</v>
@@ -9591,7 +9593,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -9600,7 +9602,7 @@
         <v>121</v>
       </c>
       <c r="D127" t="s">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="E127" t="s">
         <v>11</v>
@@ -9608,7 +9610,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>955</v>
+        <v>958</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -9617,7 +9619,7 @@
         <v>121</v>
       </c>
       <c r="D128" t="s">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="E128" t="s">
         <v>11</v>
@@ -9625,7 +9627,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>957</v>
+        <v>960</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -9634,7 +9636,7 @@
         <v>121</v>
       </c>
       <c r="D129" t="s">
-        <v>958</v>
+        <v>961</v>
       </c>
       <c r="E129" t="s">
         <v>11</v>
@@ -9642,7 +9644,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -9651,7 +9653,7 @@
         <v>121</v>
       </c>
       <c r="D130" t="s">
-        <v>960</v>
+        <v>963</v>
       </c>
       <c r="E130" t="s">
         <v>11</v>
@@ -9659,7 +9661,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -9668,7 +9670,7 @@
         <v>121</v>
       </c>
       <c r="D131" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
       <c r="E131" t="s">
         <v>11</v>
@@ -9676,7 +9678,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -9685,7 +9687,7 @@
         <v>121</v>
       </c>
       <c r="D132" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="E132" t="s">
         <v>11</v>
@@ -9693,7 +9695,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -9702,7 +9704,7 @@
         <v>121</v>
       </c>
       <c r="D133" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="E133" t="s">
         <v>11</v>
@@ -9710,7 +9712,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>967</v>
+        <v>970</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -9727,7 +9729,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -9736,7 +9738,7 @@
         <v>121</v>
       </c>
       <c r="D135" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="E135" t="s">
         <v>11</v>
@@ -9744,7 +9746,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -9753,7 +9755,7 @@
         <v>121</v>
       </c>
       <c r="D136" t="s">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="E136" t="s">
         <v>11</v>
@@ -9761,7 +9763,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -9770,7 +9772,7 @@
         <v>121</v>
       </c>
       <c r="D137" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="E137" t="s">
         <v>11</v>
@@ -9778,7 +9780,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -9787,7 +9789,7 @@
         <v>121</v>
       </c>
       <c r="D138" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="E138" t="s">
         <v>11</v>
@@ -9795,7 +9797,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -9804,7 +9806,7 @@
         <v>121</v>
       </c>
       <c r="D139" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="E139" t="s">
         <v>11</v>
@@ -9812,7 +9814,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -9821,7 +9823,7 @@
         <v>121</v>
       </c>
       <c r="D140" t="s">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="E140" t="s">
         <v>11</v>
@@ -9829,7 +9831,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -9846,7 +9848,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -9855,7 +9857,7 @@
         <v>121</v>
       </c>
       <c r="D142" t="s">
-        <v>982</v>
+        <v>985</v>
       </c>
       <c r="E142" t="s">
         <v>11</v>
@@ -9863,7 +9865,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>121</v>
       </c>
       <c r="D143" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="E143" t="s">
         <v>11</v>
@@ -9880,7 +9882,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -9889,7 +9891,7 @@
         <v>121</v>
       </c>
       <c r="D144" t="s">
-        <v>986</v>
+        <v>989</v>
       </c>
       <c r="E144" t="s">
         <v>11</v>
@@ -9897,7 +9899,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>987</v>
+        <v>990</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -9906,7 +9908,7 @@
         <v>121</v>
       </c>
       <c r="D145" t="s">
-        <v>988</v>
+        <v>991</v>
       </c>
       <c r="E145" t="s">
         <v>11</v>
@@ -9914,7 +9916,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -9923,7 +9925,7 @@
         <v>121</v>
       </c>
       <c r="D146" t="s">
-        <v>990</v>
+        <v>993</v>
       </c>
       <c r="E146" t="s">
         <v>11</v>
@@ -9931,7 +9933,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -9940,7 +9942,7 @@
         <v>121</v>
       </c>
       <c r="D147" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="E147" t="s">
         <v>11</v>
@@ -9948,7 +9950,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>993</v>
+        <v>996</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -9957,7 +9959,7 @@
         <v>121</v>
       </c>
       <c r="D148" t="s">
-        <v>994</v>
+        <v>997</v>
       </c>
       <c r="E148" t="s">
         <v>11</v>
@@ -9965,7 +9967,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -9974,7 +9976,7 @@
         <v>121</v>
       </c>
       <c r="D149" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="E149" t="s">
         <v>11</v>
@@ -9982,7 +9984,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -9991,7 +9993,7 @@
         <v>121</v>
       </c>
       <c r="D150" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="E150" t="s">
         <v>11</v>
@@ -9999,7 +10001,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>999</v>
+        <v>1002</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -10008,7 +10010,7 @@
         <v>121</v>
       </c>
       <c r="D151" t="s">
-        <v>1000</v>
+        <v>1003</v>
       </c>
       <c r="E151" t="s">
         <v>11</v>
@@ -10016,7 +10018,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>1001</v>
+        <v>1004</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -10025,7 +10027,7 @@
         <v>121</v>
       </c>
       <c r="D152" t="s">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="E152" t="s">
         <v>11</v>
@@ -10033,7 +10035,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -10050,7 +10052,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>1004</v>
+        <v>1007</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -10059,7 +10061,7 @@
         <v>121</v>
       </c>
       <c r="D154" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="E154" t="s">
         <v>11</v>
@@ -10067,7 +10069,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>1006</v>
+        <v>1009</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -10076,7 +10078,7 @@
         <v>121</v>
       </c>
       <c r="D155" t="s">
-        <v>1007</v>
+        <v>1010</v>
       </c>
       <c r="E155" t="s">
         <v>11</v>
@@ -10084,7 +10086,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>1008</v>
+        <v>1011</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -10093,7 +10095,7 @@
         <v>121</v>
       </c>
       <c r="D156" t="s">
-        <v>1009</v>
+        <v>1012</v>
       </c>
       <c r="E156" t="s">
         <v>11</v>
@@ -10101,7 +10103,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -10110,7 +10112,7 @@
         <v>121</v>
       </c>
       <c r="D157" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="E157" t="s">
         <v>11</v>
@@ -10118,7 +10120,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>1012</v>
+        <v>1015</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -10127,7 +10129,7 @@
         <v>121</v>
       </c>
       <c r="D158" t="s">
-        <v>1013</v>
+        <v>1016</v>
       </c>
       <c r="E158" t="s">
         <v>11</v>
@@ -10135,7 +10137,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -10144,7 +10146,7 @@
         <v>121</v>
       </c>
       <c r="D159" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="E159" t="s">
         <v>11</v>
@@ -10152,7 +10154,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>1016</v>
+        <v>1019</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -10161,7 +10163,7 @@
         <v>121</v>
       </c>
       <c r="D160" t="s">
-        <v>1017</v>
+        <v>1020</v>
       </c>
       <c r="E160" t="s">
         <v>11</v>
@@ -10169,7 +10171,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>1018</v>
+        <v>1021</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -10178,7 +10180,7 @@
         <v>121</v>
       </c>
       <c r="D161" t="s">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="E161" t="s">
         <v>11</v>
@@ -10186,7 +10188,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -10195,7 +10197,7 @@
         <v>121</v>
       </c>
       <c r="D162" t="s">
-        <v>1021</v>
+        <v>1024</v>
       </c>
       <c r="E162" t="s">
         <v>11</v>
@@ -10203,7 +10205,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>1022</v>
+        <v>1025</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>121</v>
       </c>
       <c r="D163" t="s">
-        <v>1023</v>
+        <v>1026</v>
       </c>
       <c r="E163" t="s">
         <v>11</v>
@@ -10220,7 +10222,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -10229,7 +10231,7 @@
         <v>121</v>
       </c>
       <c r="D164" t="s">
-        <v>1025</v>
+        <v>1028</v>
       </c>
       <c r="E164" t="s">
         <v>11</v>
@@ -10237,7 +10239,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -10246,7 +10248,7 @@
         <v>121</v>
       </c>
       <c r="D165" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="E165" t="s">
         <v>11</v>
@@ -10254,7 +10256,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -10263,7 +10265,7 @@
         <v>121</v>
       </c>
       <c r="D166" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="E166" t="s">
         <v>11</v>
@@ -10271,7 +10273,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -10288,7 +10290,7 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -10297,7 +10299,7 @@
         <v>121</v>
       </c>
       <c r="D168" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="E168" t="s">
         <v>11</v>
@@ -10305,7 +10307,7 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -10314,7 +10316,7 @@
         <v>121</v>
       </c>
       <c r="D169" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="E169" t="s">
         <v>11</v>
@@ -10322,7 +10324,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -10331,7 +10333,7 @@
         <v>121</v>
       </c>
       <c r="D170" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="E170" t="s">
         <v>11</v>
@@ -10339,7 +10341,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -10356,7 +10358,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -10365,7 +10367,7 @@
         <v>121</v>
       </c>
       <c r="D172" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="E172" t="s">
         <v>11</v>
@@ -10373,7 +10375,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -10382,7 +10384,7 @@
         <v>121</v>
       </c>
       <c r="D173" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="E173" t="s">
         <v>11</v>
@@ -10390,7 +10392,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -10399,7 +10401,7 @@
         <v>121</v>
       </c>
       <c r="D174" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="E174" t="s">
         <v>11</v>
@@ -10407,7 +10409,7 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -10416,7 +10418,7 @@
         <v>121</v>
       </c>
       <c r="D175" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
       <c r="E175" t="s">
         <v>11</v>
@@ -10424,7 +10426,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -10433,7 +10435,7 @@
         <v>121</v>
       </c>
       <c r="D176" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="E176" t="s">
         <v>11</v>
@@ -10441,7 +10443,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -10450,7 +10452,7 @@
         <v>121</v>
       </c>
       <c r="D177" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="E177" t="s">
         <v>11</v>
@@ -10458,7 +10460,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -10467,7 +10469,7 @@
         <v>121</v>
       </c>
       <c r="D178" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
       <c r="E178" t="s">
         <v>11</v>
@@ -10475,7 +10477,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -10484,7 +10486,7 @@
         <v>121</v>
       </c>
       <c r="D179" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="E179" t="s">
         <v>11</v>
@@ -10492,7 +10494,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -10501,7 +10503,7 @@
         <v>121</v>
       </c>
       <c r="D180" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="E180" t="s">
         <v>11</v>
@@ -10509,7 +10511,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -10518,7 +10520,7 @@
         <v>121</v>
       </c>
       <c r="D181" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="E181" t="s">
         <v>11</v>
@@ -10526,7 +10528,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -10535,7 +10537,7 @@
         <v>121</v>
       </c>
       <c r="D182" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="E182" t="s">
         <v>11</v>
@@ -10543,7 +10545,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -10552,7 +10554,7 @@
         <v>121</v>
       </c>
       <c r="D183" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="E183" t="s">
         <v>11</v>
@@ -10560,7 +10562,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -10569,7 +10571,7 @@
         <v>121</v>
       </c>
       <c r="D184" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
       <c r="E184" t="s">
         <v>11</v>
@@ -10577,7 +10579,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -10586,7 +10588,7 @@
         <v>121</v>
       </c>
       <c r="D185" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="E185" t="s">
         <v>11</v>
@@ -10594,7 +10596,7 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -10603,7 +10605,7 @@
         <v>121</v>
       </c>
       <c r="D186" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="E186" t="s">
         <v>11</v>
@@ -10611,7 +10613,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -10620,7 +10622,7 @@
         <v>121</v>
       </c>
       <c r="D187" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E187" t="s">
         <v>11</v>
@@ -10628,7 +10630,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -10637,7 +10639,7 @@
         <v>121</v>
       </c>
       <c r="D188" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="E188" t="s">
         <v>11</v>
@@ -10645,7 +10647,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -10654,7 +10656,7 @@
         <v>121</v>
       </c>
       <c r="D189" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="E189" t="s">
         <v>11</v>
@@ -10672,7 +10674,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -10703,7 +10705,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -10712,7 +10714,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -10720,7 +10722,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -10729,7 +10731,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -10737,7 +10739,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -10746,7 +10748,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -10754,7 +10756,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -10763,7 +10765,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -10771,7 +10773,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -10788,7 +10790,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -10797,7 +10799,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -10805,7 +10807,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -10814,7 +10816,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -10822,7 +10824,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -10831,7 +10833,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -10839,7 +10841,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -10848,7 +10850,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -10856,7 +10858,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -10865,7 +10867,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -10873,7 +10875,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -10882,7 +10884,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -10890,7 +10892,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -10907,7 +10909,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -10916,7 +10918,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -10924,7 +10926,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -10933,7 +10935,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -10941,7 +10943,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -10950,7 +10952,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -10958,7 +10960,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -10967,7 +10969,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -10975,7 +10977,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -10992,7 +10994,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -11001,7 +11003,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -11009,7 +11011,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -11018,7 +11020,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -11026,7 +11028,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -11035,7 +11037,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -11043,7 +11045,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -11052,7 +11054,7 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -11060,7 +11062,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -11077,7 +11079,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -11094,7 +11096,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -11103,7 +11105,7 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -11111,7 +11113,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -11128,7 +11130,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -11137,7 +11139,7 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -11145,7 +11147,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -11154,7 +11156,7 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -11162,7 +11164,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -11179,7 +11181,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -11188,7 +11190,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -11196,7 +11198,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -11213,7 +11215,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -11222,7 +11224,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -11230,7 +11232,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -11247,7 +11249,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -11264,7 +11266,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -11273,7 +11275,7 @@
         <v>109</v>
       </c>
       <c r="D35" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -14361,8 +14363,8 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -14550,10 +14552,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -15022,6 +15024,39 @@
       </c>
       <c r="E27" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>415</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>416</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>417</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -15067,7 +15102,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -15076,7 +15111,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -15084,7 +15119,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -15093,7 +15128,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -15101,7 +15136,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -15110,7 +15145,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -15118,7 +15153,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -15127,7 +15162,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -15135,7 +15170,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -15144,7 +15179,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -15152,7 +15187,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -15161,7 +15196,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -15169,7 +15204,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -15186,7 +15221,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -15195,7 +15230,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -15203,7 +15238,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -15212,7 +15247,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -15220,7 +15255,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -15229,7 +15264,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -15237,7 +15272,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -15246,7 +15281,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -15254,7 +15289,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -15263,7 +15298,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -15312,7 +15347,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -15321,7 +15356,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -15329,7 +15364,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -15338,7 +15373,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>

--- a/excel/2025-05-26_matched.xlsx
+++ b/excel/2025-05-26_matched.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2511" uniqueCount="1135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2513" uniqueCount="1137">
   <si>
     <t>user</t>
   </si>
@@ -1290,7 +1290,13 @@
     <t>测试101</t>
   </si>
   <si>
+    <t>6506BE24</t>
+  </si>
+  <si>
     <t>测试102</t>
+  </si>
+  <si>
+    <t>B4AD78A7</t>
   </si>
   <si>
     <t>测试103</t>
@@ -4080,10 +4086,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -4778,7 +4787,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -4787,7 +4796,7 @@
         <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -4795,7 +4804,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4804,7 +4813,7 @@
         <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -4812,7 +4821,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -4821,7 +4830,7 @@
         <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
@@ -4829,7 +4838,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -4838,7 +4847,7 @@
         <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -4846,7 +4855,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4855,7 +4864,7 @@
         <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -4863,7 +4872,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -4872,7 +4881,7 @@
         <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -4880,7 +4889,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -4889,7 +4898,7 @@
         <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -4897,7 +4906,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -4906,7 +4915,7 @@
         <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -4914,7 +4923,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -4923,7 +4932,7 @@
         <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -4931,7 +4940,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -4940,7 +4949,7 @@
         <v>121</v>
       </c>
       <c r="D11" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -4948,7 +4957,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -4957,7 +4966,7 @@
         <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -4965,7 +4974,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -4974,7 +4983,7 @@
         <v>109</v>
       </c>
       <c r="D13" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -4982,7 +4991,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -4991,7 +5000,7 @@
         <v>109</v>
       </c>
       <c r="D14" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -4999,7 +5008,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -5016,7 +5025,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -5025,7 +5034,7 @@
         <v>109</v>
       </c>
       <c r="D16" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -5033,7 +5042,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -5042,7 +5051,7 @@
         <v>109</v>
       </c>
       <c r="D17" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -5050,7 +5059,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -5059,7 +5068,7 @@
         <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -5067,7 +5076,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -5076,7 +5085,7 @@
         <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -5084,7 +5093,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -5093,7 +5102,7 @@
         <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -5101,7 +5110,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -5110,7 +5119,7 @@
         <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -5118,7 +5127,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -5127,7 +5136,7 @@
         <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -5135,7 +5144,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -5144,7 +5153,7 @@
         <v>121</v>
       </c>
       <c r="D23" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -5152,7 +5161,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -5161,7 +5170,7 @@
         <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -5169,7 +5178,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -5178,7 +5187,7 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -5186,7 +5195,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -5195,7 +5204,7 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -5203,7 +5212,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -5212,7 +5221,7 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -5220,7 +5229,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -5229,7 +5238,7 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -5237,7 +5246,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -5246,7 +5255,7 @@
         <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -5254,7 +5263,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -5263,7 +5272,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -5271,7 +5280,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -5280,7 +5289,7 @@
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -5288,7 +5297,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -5297,7 +5306,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -5305,7 +5314,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -5314,7 +5323,7 @@
         <v>6</v>
       </c>
       <c r="D33" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -5322,7 +5331,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -5339,7 +5348,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -5348,7 +5357,7 @@
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -5356,7 +5365,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -5373,7 +5382,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -5382,7 +5391,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -5390,7 +5399,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5407,7 +5416,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -5424,7 +5433,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -5441,7 +5450,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5450,7 +5459,7 @@
         <v>6</v>
       </c>
       <c r="D41" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
@@ -5458,7 +5467,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5467,7 +5476,7 @@
         <v>6</v>
       </c>
       <c r="D42" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
@@ -5475,7 +5484,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5484,7 +5493,7 @@
         <v>6</v>
       </c>
       <c r="D43" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
@@ -5492,7 +5501,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5501,7 +5510,7 @@
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
@@ -5509,7 +5518,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5518,7 +5527,7 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
@@ -5526,7 +5535,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -5535,7 +5544,7 @@
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
@@ -5543,7 +5552,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -5552,7 +5561,7 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
@@ -5560,7 +5569,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -5569,7 +5578,7 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
@@ -5577,7 +5586,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -5586,7 +5595,7 @@
         <v>6</v>
       </c>
       <c r="D49" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
@@ -5594,7 +5603,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -5603,7 +5612,7 @@
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
@@ -5611,7 +5620,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -5620,7 +5629,7 @@
         <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -5628,7 +5637,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -5637,7 +5646,7 @@
         <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
@@ -5686,7 +5695,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -5703,7 +5712,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -5720,7 +5729,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -5737,7 +5746,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -5746,7 +5755,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -5754,7 +5763,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -5763,7 +5772,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -5771,7 +5780,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -5780,7 +5789,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -5788,7 +5797,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -5805,7 +5814,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -5814,7 +5823,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -5822,7 +5831,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -5839,7 +5848,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -5848,7 +5857,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -5856,7 +5865,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -5865,7 +5874,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -5873,7 +5882,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -5882,7 +5891,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -5890,7 +5899,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -5899,7 +5908,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -5907,7 +5916,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -5924,7 +5933,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -5941,7 +5950,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -5958,7 +5967,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -5975,7 +5984,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -5984,7 +5993,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -5992,7 +6001,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -6001,7 +6010,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -6009,7 +6018,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -6026,7 +6035,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -6043,7 +6052,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -6060,7 +6069,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -6069,7 +6078,7 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -6077,7 +6086,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -6086,7 +6095,7 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -6094,7 +6103,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -6103,7 +6112,7 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -6111,7 +6120,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -6128,7 +6137,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -6145,7 +6154,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -6154,7 +6163,7 @@
         <v>121</v>
       </c>
       <c r="D29" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -6162,7 +6171,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -6171,7 +6180,7 @@
         <v>121</v>
       </c>
       <c r="D30" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -6179,7 +6188,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -6196,7 +6205,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -6205,7 +6214,7 @@
         <v>121</v>
       </c>
       <c r="D32" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -6213,7 +6222,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -6222,7 +6231,7 @@
         <v>121</v>
       </c>
       <c r="D33" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -6230,7 +6239,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -6239,7 +6248,7 @@
         <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
@@ -6247,7 +6256,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -6256,7 +6265,7 @@
         <v>121</v>
       </c>
       <c r="D35" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E35" t="s">
         <v>28</v>
@@ -6264,7 +6273,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -6273,7 +6282,7 @@
         <v>121</v>
       </c>
       <c r="D36" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
@@ -6281,7 +6290,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -6290,7 +6299,7 @@
         <v>121</v>
       </c>
       <c r="D37" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -6298,7 +6307,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -6307,7 +6316,7 @@
         <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -6315,7 +6324,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -6324,7 +6333,7 @@
         <v>121</v>
       </c>
       <c r="D39" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="E39" t="s">
         <v>28</v>
@@ -6332,7 +6341,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -6341,7 +6350,7 @@
         <v>121</v>
       </c>
       <c r="D40" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E40" t="s">
         <v>28</v>
@@ -6349,7 +6358,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -6358,7 +6367,7 @@
         <v>121</v>
       </c>
       <c r="D41" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
@@ -6366,7 +6375,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -6375,7 +6384,7 @@
         <v>121</v>
       </c>
       <c r="D42" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
@@ -6383,7 +6392,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -6392,7 +6401,7 @@
         <v>121</v>
       </c>
       <c r="D43" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
@@ -6400,7 +6409,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -6409,7 +6418,7 @@
         <v>109</v>
       </c>
       <c r="D44" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
@@ -6417,7 +6426,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -6426,7 +6435,7 @@
         <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="E45" t="s">
         <v>28</v>
@@ -6434,7 +6443,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -6443,7 +6452,7 @@
         <v>109</v>
       </c>
       <c r="D46" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E46" t="s">
         <v>28</v>
@@ -6451,7 +6460,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -6460,7 +6469,7 @@
         <v>109</v>
       </c>
       <c r="D47" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E47" t="s">
         <v>28</v>
@@ -6468,7 +6477,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -6477,7 +6486,7 @@
         <v>109</v>
       </c>
       <c r="D48" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
@@ -6485,7 +6494,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6494,7 +6503,7 @@
         <v>109</v>
       </c>
       <c r="D49" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="E49" t="s">
         <v>28</v>
@@ -6502,7 +6511,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -6511,7 +6520,7 @@
         <v>109</v>
       </c>
       <c r="D50" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="E50" t="s">
         <v>28</v>
@@ -6519,7 +6528,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -6528,7 +6537,7 @@
         <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -6536,7 +6545,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -6545,7 +6554,7 @@
         <v>109</v>
       </c>
       <c r="D52" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="E52" t="s">
         <v>28</v>
@@ -6553,7 +6562,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -6562,7 +6571,7 @@
         <v>109</v>
       </c>
       <c r="D53" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
@@ -6570,7 +6579,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -6579,7 +6588,7 @@
         <v>109</v>
       </c>
       <c r="D54" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E54" t="s">
         <v>28</v>
@@ -6587,7 +6596,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -6596,7 +6605,7 @@
         <v>109</v>
       </c>
       <c r="D55" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
@@ -6604,7 +6613,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -6613,7 +6622,7 @@
         <v>109</v>
       </c>
       <c r="D56" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
@@ -6621,7 +6630,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -6630,7 +6639,7 @@
         <v>109</v>
       </c>
       <c r="D57" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -6638,7 +6647,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -6647,7 +6656,7 @@
         <v>109</v>
       </c>
       <c r="D58" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -6655,7 +6664,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -6664,7 +6673,7 @@
         <v>109</v>
       </c>
       <c r="D59" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
@@ -6672,7 +6681,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -6681,7 +6690,7 @@
         <v>109</v>
       </c>
       <c r="D60" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
@@ -6689,7 +6698,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -6706,7 +6715,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -6715,7 +6724,7 @@
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
@@ -6764,7 +6773,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6773,7 +6782,7 @@
         <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -6781,7 +6790,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6790,7 +6799,7 @@
         <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -6798,7 +6807,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -6807,7 +6816,7 @@
         <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -6815,7 +6824,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -6824,7 +6833,7 @@
         <v>121</v>
       </c>
       <c r="D5" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -6832,7 +6841,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6841,7 +6850,7 @@
         <v>121</v>
       </c>
       <c r="D6" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -6849,7 +6858,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -6858,7 +6867,7 @@
         <v>121</v>
       </c>
       <c r="D7" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -6866,7 +6875,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -6875,7 +6884,7 @@
         <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -6883,7 +6892,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6892,7 +6901,7 @@
         <v>121</v>
       </c>
       <c r="D9" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -6900,7 +6909,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -6909,7 +6918,7 @@
         <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
@@ -6917,7 +6926,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -6934,7 +6943,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -6943,7 +6952,7 @@
         <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -6951,7 +6960,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -6960,7 +6969,7 @@
         <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -6968,7 +6977,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6977,7 +6986,7 @@
         <v>121</v>
       </c>
       <c r="D14" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -6985,7 +6994,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -6994,7 +7003,7 @@
         <v>121</v>
       </c>
       <c r="D15" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -7002,7 +7011,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -7011,7 +7020,7 @@
         <v>121</v>
       </c>
       <c r="D16" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -7019,7 +7028,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -7028,7 +7037,7 @@
         <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -7036,7 +7045,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -7045,7 +7054,7 @@
         <v>109</v>
       </c>
       <c r="D18" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -7053,7 +7062,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -7062,7 +7071,7 @@
         <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -7070,7 +7079,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -7079,7 +7088,7 @@
         <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="E20" t="s">
         <v>28</v>
@@ -7087,7 +7096,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -7096,7 +7105,7 @@
         <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -7104,7 +7113,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -7113,7 +7122,7 @@
         <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -7121,7 +7130,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -7130,7 +7139,7 @@
         <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -7138,7 +7147,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -7147,7 +7156,7 @@
         <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -7155,7 +7164,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -7164,7 +7173,7 @@
         <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -7172,7 +7181,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -7181,7 +7190,7 @@
         <v>109</v>
       </c>
       <c r="D26" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -7189,7 +7198,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -7198,7 +7207,7 @@
         <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -7206,7 +7215,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -7215,7 +7224,7 @@
         <v>109</v>
       </c>
       <c r="D28" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -7223,7 +7232,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -7240,7 +7249,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -7249,7 +7258,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -7257,7 +7266,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -7266,7 +7275,7 @@
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -7274,7 +7283,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -7283,7 +7292,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -7291,7 +7300,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -7308,7 +7317,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -7317,7 +7326,7 @@
         <v>6</v>
       </c>
       <c r="D34" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
@@ -7325,7 +7334,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -7342,7 +7351,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -7359,7 +7368,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -7368,7 +7377,7 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -7376,7 +7385,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -7385,7 +7394,7 @@
         <v>6</v>
       </c>
       <c r="D38" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -7393,7 +7402,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -7402,7 +7411,7 @@
         <v>6</v>
       </c>
       <c r="D39" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
@@ -7410,7 +7419,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -7419,7 +7428,7 @@
         <v>6</v>
       </c>
       <c r="D40" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
@@ -7468,7 +7477,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7477,7 +7486,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -7485,7 +7494,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -7494,7 +7503,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -7502,7 +7511,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -7511,7 +7520,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -7519,7 +7528,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -7528,7 +7537,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -7536,7 +7545,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -7553,7 +7562,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -7570,7 +7579,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -7587,7 +7596,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -7596,7 +7605,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -7604,7 +7613,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -7621,7 +7630,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -7638,7 +7647,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -7647,7 +7656,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -7655,7 +7664,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -7664,7 +7673,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -7672,7 +7681,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -7681,7 +7690,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -7689,7 +7698,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -7698,7 +7707,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -7706,7 +7715,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -7715,7 +7724,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -7723,7 +7732,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -7740,7 +7749,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -7749,7 +7758,7 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -7757,7 +7766,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -7766,7 +7775,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -7774,7 +7783,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -7783,7 +7792,7 @@
         <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -7791,7 +7800,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -7800,7 +7809,7 @@
         <v>109</v>
       </c>
       <c r="D21" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -7808,7 +7817,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -7825,7 +7834,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -7834,7 +7843,7 @@
         <v>109</v>
       </c>
       <c r="D23" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -7842,7 +7851,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -7851,7 +7860,7 @@
         <v>109</v>
       </c>
       <c r="D24" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -7859,7 +7868,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -7868,7 +7877,7 @@
         <v>109</v>
       </c>
       <c r="D25" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -7876,7 +7885,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -7885,7 +7894,7 @@
         <v>109</v>
       </c>
       <c r="D26" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E26" t="s">
         <v>11</v>
@@ -7893,7 +7902,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -7902,7 +7911,7 @@
         <v>109</v>
       </c>
       <c r="D27" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -7910,7 +7919,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -7919,7 +7928,7 @@
         <v>109</v>
       </c>
       <c r="D28" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -7927,7 +7936,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -7936,7 +7945,7 @@
         <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="E29" t="s">
         <v>11</v>
@@ -7944,7 +7953,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -7953,7 +7962,7 @@
         <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -7961,7 +7970,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -7970,7 +7979,7 @@
         <v>109</v>
       </c>
       <c r="D31" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="E31" t="s">
         <v>11</v>
@@ -7978,7 +7987,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -7987,7 +7996,7 @@
         <v>109</v>
       </c>
       <c r="D32" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -7995,7 +8004,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -8004,7 +8013,7 @@
         <v>109</v>
       </c>
       <c r="D33" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="E33" t="s">
         <v>11</v>
@@ -8012,7 +8021,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -8021,7 +8030,7 @@
         <v>109</v>
       </c>
       <c r="D34" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
@@ -8029,7 +8038,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -8038,7 +8047,7 @@
         <v>109</v>
       </c>
       <c r="D35" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -8046,7 +8055,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -8055,7 +8064,7 @@
         <v>109</v>
       </c>
       <c r="D36" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
@@ -8063,7 +8072,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -8072,7 +8081,7 @@
         <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
@@ -8080,7 +8089,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -8089,7 +8098,7 @@
         <v>109</v>
       </c>
       <c r="D38" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -8097,7 +8106,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -8106,7 +8115,7 @@
         <v>109</v>
       </c>
       <c r="D39" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="E39" t="s">
         <v>11</v>
@@ -8114,7 +8123,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -8123,7 +8132,7 @@
         <v>109</v>
       </c>
       <c r="D40" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
@@ -8131,7 +8140,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -8148,7 +8157,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -8157,7 +8166,7 @@
         <v>109</v>
       </c>
       <c r="D42" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="E42" t="s">
         <v>11</v>
@@ -8165,7 +8174,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -8174,7 +8183,7 @@
         <v>109</v>
       </c>
       <c r="D43" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="E43" t="s">
         <v>11</v>
@@ -8182,7 +8191,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -8191,7 +8200,7 @@
         <v>109</v>
       </c>
       <c r="D44" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="E44" t="s">
         <v>11</v>
@@ -8199,7 +8208,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -8208,7 +8217,7 @@
         <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="E45" t="s">
         <v>11</v>
@@ -8216,7 +8225,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -8225,7 +8234,7 @@
         <v>109</v>
       </c>
       <c r="D46" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="E46" t="s">
         <v>11</v>
@@ -8233,7 +8242,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -8242,7 +8251,7 @@
         <v>109</v>
       </c>
       <c r="D47" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
@@ -8250,7 +8259,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -8259,7 +8268,7 @@
         <v>109</v>
       </c>
       <c r="D48" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
@@ -8267,7 +8276,7 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -8276,7 +8285,7 @@
         <v>109</v>
       </c>
       <c r="D49" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
@@ -8284,7 +8293,7 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -8293,7 +8302,7 @@
         <v>109</v>
       </c>
       <c r="D50" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="E50" t="s">
         <v>11</v>
@@ -8301,7 +8310,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -8310,7 +8319,7 @@
         <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E51" t="s">
         <v>11</v>
@@ -8318,7 +8327,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -8327,7 +8336,7 @@
         <v>109</v>
       </c>
       <c r="D52" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
@@ -8335,7 +8344,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -8344,7 +8353,7 @@
         <v>109</v>
       </c>
       <c r="D53" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="E53" t="s">
         <v>11</v>
@@ -8352,7 +8361,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -8361,7 +8370,7 @@
         <v>109</v>
       </c>
       <c r="D54" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="E54" t="s">
         <v>11</v>
@@ -8369,7 +8378,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -8386,7 +8395,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -8395,7 +8404,7 @@
         <v>109</v>
       </c>
       <c r="D56" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
@@ -8403,7 +8412,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -8412,7 +8421,7 @@
         <v>109</v>
       </c>
       <c r="D57" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
@@ -8420,7 +8429,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -8429,7 +8438,7 @@
         <v>109</v>
       </c>
       <c r="D58" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
@@ -8437,7 +8446,7 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -8446,7 +8455,7 @@
         <v>109</v>
       </c>
       <c r="D59" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="E59" t="s">
         <v>11</v>
@@ -8454,7 +8463,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -8463,7 +8472,7 @@
         <v>121</v>
       </c>
       <c r="D60" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
@@ -8471,7 +8480,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -8480,7 +8489,7 @@
         <v>121</v>
       </c>
       <c r="D61" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
@@ -8488,7 +8497,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -8497,7 +8506,7 @@
         <v>121</v>
       </c>
       <c r="D62" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
@@ -8505,7 +8514,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -8514,7 +8523,7 @@
         <v>121</v>
       </c>
       <c r="D63" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="E63" t="s">
         <v>11</v>
@@ -8522,7 +8531,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -8531,7 +8540,7 @@
         <v>121</v>
       </c>
       <c r="D64" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="E64" t="s">
         <v>11</v>
@@ -8539,7 +8548,7 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -8548,7 +8557,7 @@
         <v>121</v>
       </c>
       <c r="D65" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="E65" t="s">
         <v>11</v>
@@ -8556,7 +8565,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -8565,7 +8574,7 @@
         <v>121</v>
       </c>
       <c r="D66" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="E66" t="s">
         <v>11</v>
@@ -8573,7 +8582,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -8582,7 +8591,7 @@
         <v>121</v>
       </c>
       <c r="D67" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="E67" t="s">
         <v>11</v>
@@ -8590,7 +8599,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -8599,7 +8608,7 @@
         <v>121</v>
       </c>
       <c r="D68" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="E68" t="s">
         <v>11</v>
@@ -8607,7 +8616,7 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -8616,7 +8625,7 @@
         <v>121</v>
       </c>
       <c r="D69" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="E69" t="s">
         <v>11</v>
@@ -8624,7 +8633,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -8633,7 +8642,7 @@
         <v>121</v>
       </c>
       <c r="D70" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
@@ -8641,7 +8650,7 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -8650,7 +8659,7 @@
         <v>109</v>
       </c>
       <c r="D71" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
@@ -8658,7 +8667,7 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -8667,7 +8676,7 @@
         <v>121</v>
       </c>
       <c r="D72" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
@@ -8675,7 +8684,7 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -8684,7 +8693,7 @@
         <v>121</v>
       </c>
       <c r="D73" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
@@ -8692,7 +8701,7 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -8701,7 +8710,7 @@
         <v>121</v>
       </c>
       <c r="D74" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
@@ -8709,7 +8718,7 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -8718,7 +8727,7 @@
         <v>121</v>
       </c>
       <c r="D75" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
@@ -8726,7 +8735,7 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -8735,7 +8744,7 @@
         <v>121</v>
       </c>
       <c r="D76" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
@@ -8743,7 +8752,7 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -8752,7 +8761,7 @@
         <v>121</v>
       </c>
       <c r="D77" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
@@ -8760,7 +8769,7 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -8769,7 +8778,7 @@
         <v>121</v>
       </c>
       <c r="D78" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
@@ -8777,7 +8786,7 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -8794,7 +8803,7 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -8803,7 +8812,7 @@
         <v>121</v>
       </c>
       <c r="D80" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
@@ -8811,7 +8820,7 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -8820,7 +8829,7 @@
         <v>121</v>
       </c>
       <c r="D81" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
@@ -8828,7 +8837,7 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -8837,7 +8846,7 @@
         <v>121</v>
       </c>
       <c r="D82" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
@@ -8845,7 +8854,7 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -8854,7 +8863,7 @@
         <v>121</v>
       </c>
       <c r="D83" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="E83" t="s">
         <v>11</v>
@@ -8862,7 +8871,7 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -8871,7 +8880,7 @@
         <v>121</v>
       </c>
       <c r="D84" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
@@ -8879,7 +8888,7 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -8888,7 +8897,7 @@
         <v>121</v>
       </c>
       <c r="D85" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
@@ -8896,7 +8905,7 @@
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -8905,7 +8914,7 @@
         <v>121</v>
       </c>
       <c r="D86" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
@@ -8913,7 +8922,7 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -8922,7 +8931,7 @@
         <v>121</v>
       </c>
       <c r="D87" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="E87" t="s">
         <v>11</v>
@@ -8930,7 +8939,7 @@
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -8939,7 +8948,7 @@
         <v>121</v>
       </c>
       <c r="D88" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="E88" t="s">
         <v>11</v>
@@ -8947,7 +8956,7 @@
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -8956,7 +8965,7 @@
         <v>121</v>
       </c>
       <c r="D89" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="E89" t="s">
         <v>11</v>
@@ -8964,7 +8973,7 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -8973,7 +8982,7 @@
         <v>121</v>
       </c>
       <c r="D90" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="E90" t="s">
         <v>11</v>
@@ -8981,7 +8990,7 @@
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -8990,7 +8999,7 @@
         <v>121</v>
       </c>
       <c r="D91" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
@@ -8998,7 +9007,7 @@
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -9007,7 +9016,7 @@
         <v>121</v>
       </c>
       <c r="D92" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="E92" t="s">
         <v>11</v>
@@ -9015,7 +9024,7 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -9024,7 +9033,7 @@
         <v>121</v>
       </c>
       <c r="D93" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="E93" t="s">
         <v>11</v>
@@ -9032,7 +9041,7 @@
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -9041,7 +9050,7 @@
         <v>121</v>
       </c>
       <c r="D94" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="E94" t="s">
         <v>11</v>
@@ -9049,7 +9058,7 @@
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -9058,7 +9067,7 @@
         <v>121</v>
       </c>
       <c r="D95" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="E95" t="s">
         <v>11</v>
@@ -9066,7 +9075,7 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -9075,7 +9084,7 @@
         <v>121</v>
       </c>
       <c r="D96" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="E96" t="s">
         <v>11</v>
@@ -9083,7 +9092,7 @@
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -9092,7 +9101,7 @@
         <v>121</v>
       </c>
       <c r="D97" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="E97" t="s">
         <v>11</v>
@@ -9100,7 +9109,7 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -9109,7 +9118,7 @@
         <v>121</v>
       </c>
       <c r="D98" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
       <c r="E98" t="s">
         <v>11</v>
@@ -9117,7 +9126,7 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -9134,7 +9143,7 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -9143,7 +9152,7 @@
         <v>121</v>
       </c>
       <c r="D100" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
@@ -9151,7 +9160,7 @@
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -9160,7 +9169,7 @@
         <v>121</v>
       </c>
       <c r="D101" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="E101" t="s">
         <v>11</v>
@@ -9168,7 +9177,7 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -9177,7 +9186,7 @@
         <v>121</v>
       </c>
       <c r="D102" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="E102" t="s">
         <v>11</v>
@@ -9185,7 +9194,7 @@
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -9202,7 +9211,7 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -9211,7 +9220,7 @@
         <v>121</v>
       </c>
       <c r="D104" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="E104" t="s">
         <v>11</v>
@@ -9219,7 +9228,7 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -9228,7 +9237,7 @@
         <v>121</v>
       </c>
       <c r="D105" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="E105" t="s">
         <v>11</v>
@@ -9236,7 +9245,7 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -9245,7 +9254,7 @@
         <v>121</v>
       </c>
       <c r="D106" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="E106" t="s">
         <v>11</v>
@@ -9253,7 +9262,7 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -9262,7 +9271,7 @@
         <v>121</v>
       </c>
       <c r="D107" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="E107" t="s">
         <v>11</v>
@@ -9270,7 +9279,7 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -9279,7 +9288,7 @@
         <v>121</v>
       </c>
       <c r="D108" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="E108" t="s">
         <v>11</v>
@@ -9287,7 +9296,7 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -9296,7 +9305,7 @@
         <v>121</v>
       </c>
       <c r="D109" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="E109" t="s">
         <v>11</v>
@@ -9304,7 +9313,7 @@
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -9313,7 +9322,7 @@
         <v>121</v>
       </c>
       <c r="D110" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="E110" t="s">
         <v>11</v>
@@ -9321,7 +9330,7 @@
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -9330,7 +9339,7 @@
         <v>121</v>
       </c>
       <c r="D111" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
@@ -9338,7 +9347,7 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -9347,7 +9356,7 @@
         <v>121</v>
       </c>
       <c r="D112" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="E112" t="s">
         <v>11</v>
@@ -9355,7 +9364,7 @@
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -9364,7 +9373,7 @@
         <v>121</v>
       </c>
       <c r="D113" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
@@ -9372,7 +9381,7 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -9381,7 +9390,7 @@
         <v>121</v>
       </c>
       <c r="D114" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="E114" t="s">
         <v>11</v>
@@ -9389,7 +9398,7 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -9398,7 +9407,7 @@
         <v>121</v>
       </c>
       <c r="D115" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="E115" t="s">
         <v>11</v>
@@ -9406,7 +9415,7 @@
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -9415,7 +9424,7 @@
         <v>121</v>
       </c>
       <c r="D116" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="E116" t="s">
         <v>11</v>
@@ -9423,7 +9432,7 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -9432,7 +9441,7 @@
         <v>121</v>
       </c>
       <c r="D117" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="E117" t="s">
         <v>11</v>
@@ -9440,7 +9449,7 @@
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -9457,7 +9466,7 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -9466,7 +9475,7 @@
         <v>121</v>
       </c>
       <c r="D119" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="E119" t="s">
         <v>11</v>
@@ -9474,7 +9483,7 @@
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -9483,7 +9492,7 @@
         <v>121</v>
       </c>
       <c r="D120" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
@@ -9491,7 +9500,7 @@
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -9500,7 +9509,7 @@
         <v>121</v>
       </c>
       <c r="D121" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E121" t="s">
         <v>11</v>
@@ -9508,7 +9517,7 @@
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -9517,7 +9526,7 @@
         <v>121</v>
       </c>
       <c r="D122" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="E122" t="s">
         <v>11</v>
@@ -9525,7 +9534,7 @@
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -9534,7 +9543,7 @@
         <v>121</v>
       </c>
       <c r="D123" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="E123" t="s">
         <v>11</v>
@@ -9542,7 +9551,7 @@
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -9551,7 +9560,7 @@
         <v>121</v>
       </c>
       <c r="D124" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="E124" t="s">
         <v>11</v>
@@ -9559,7 +9568,7 @@
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -9568,7 +9577,7 @@
         <v>121</v>
       </c>
       <c r="D125" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="E125" t="s">
         <v>11</v>
@@ -9576,7 +9585,7 @@
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -9585,7 +9594,7 @@
         <v>121</v>
       </c>
       <c r="D126" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="E126" t="s">
         <v>11</v>
@@ -9593,7 +9602,7 @@
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -9602,7 +9611,7 @@
         <v>121</v>
       </c>
       <c r="D127" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="E127" t="s">
         <v>11</v>
@@ -9610,7 +9619,7 @@
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -9619,7 +9628,7 @@
         <v>121</v>
       </c>
       <c r="D128" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="E128" t="s">
         <v>11</v>
@@ -9627,7 +9636,7 @@
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -9636,7 +9645,7 @@
         <v>121</v>
       </c>
       <c r="D129" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E129" t="s">
         <v>11</v>
@@ -9644,7 +9653,7 @@
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -9653,7 +9662,7 @@
         <v>121</v>
       </c>
       <c r="D130" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="E130" t="s">
         <v>11</v>
@@ -9661,7 +9670,7 @@
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -9670,7 +9679,7 @@
         <v>121</v>
       </c>
       <c r="D131" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="E131" t="s">
         <v>11</v>
@@ -9678,7 +9687,7 @@
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -9687,7 +9696,7 @@
         <v>121</v>
       </c>
       <c r="D132" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="E132" t="s">
         <v>11</v>
@@ -9695,7 +9704,7 @@
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -9704,7 +9713,7 @@
         <v>121</v>
       </c>
       <c r="D133" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="E133" t="s">
         <v>11</v>
@@ -9712,7 +9721,7 @@
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -9729,7 +9738,7 @@
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -9738,7 +9747,7 @@
         <v>121</v>
       </c>
       <c r="D135" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
       <c r="E135" t="s">
         <v>11</v>
@@ -9746,7 +9755,7 @@
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -9755,7 +9764,7 @@
         <v>121</v>
       </c>
       <c r="D136" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="E136" t="s">
         <v>11</v>
@@ -9763,7 +9772,7 @@
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -9772,7 +9781,7 @@
         <v>121</v>
       </c>
       <c r="D137" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="E137" t="s">
         <v>11</v>
@@ -9780,7 +9789,7 @@
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -9789,7 +9798,7 @@
         <v>121</v>
       </c>
       <c r="D138" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="E138" t="s">
         <v>11</v>
@@ -9797,7 +9806,7 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -9806,7 +9815,7 @@
         <v>121</v>
       </c>
       <c r="D139" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E139" t="s">
         <v>11</v>
@@ -9814,7 +9823,7 @@
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -9823,7 +9832,7 @@
         <v>121</v>
       </c>
       <c r="D140" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="E140" t="s">
         <v>11</v>
@@ -9831,7 +9840,7 @@
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -9848,7 +9857,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -9857,7 +9866,7 @@
         <v>121</v>
       </c>
       <c r="D142" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="E142" t="s">
         <v>11</v>
@@ -9865,7 +9874,7 @@
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -9874,7 +9883,7 @@
         <v>121</v>
       </c>
       <c r="D143" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="E143" t="s">
         <v>11</v>
@@ -9882,7 +9891,7 @@
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -9891,7 +9900,7 @@
         <v>121</v>
       </c>
       <c r="D144" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="E144" t="s">
         <v>11</v>
@@ -9899,7 +9908,7 @@
     </row>
     <row r="145" spans="1:5">
       <c r="A145" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -9908,7 +9917,7 @@
         <v>121</v>
       </c>
       <c r="D145" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="E145" t="s">
         <v>11</v>
@@ -9916,7 +9925,7 @@
     </row>
     <row r="146" spans="1:5">
       <c r="A146" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -9925,7 +9934,7 @@
         <v>121</v>
       </c>
       <c r="D146" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="E146" t="s">
         <v>11</v>
@@ -9933,7 +9942,7 @@
     </row>
     <row r="147" spans="1:5">
       <c r="A147" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -9942,7 +9951,7 @@
         <v>121</v>
       </c>
       <c r="D147" t="s">
-        <v>995</v>
+        <v>997</v>
       </c>
       <c r="E147" t="s">
         <v>11</v>
@@ -9950,7 +9959,7 @@
     </row>
     <row r="148" spans="1:5">
       <c r="A148" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -9959,7 +9968,7 @@
         <v>121</v>
       </c>
       <c r="D148" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E148" t="s">
         <v>11</v>
@@ -9967,7 +9976,7 @@
     </row>
     <row r="149" spans="1:5">
       <c r="A149" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -9976,7 +9985,7 @@
         <v>121</v>
       </c>
       <c r="D149" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="E149" t="s">
         <v>11</v>
@@ -9984,7 +9993,7 @@
     </row>
     <row r="150" spans="1:5">
       <c r="A150" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -9993,7 +10002,7 @@
         <v>121</v>
       </c>
       <c r="D150" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="E150" t="s">
         <v>11</v>
@@ -10001,7 +10010,7 @@
     </row>
     <row r="151" spans="1:5">
       <c r="A151" t="s">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -10010,7 +10019,7 @@
         <v>121</v>
       </c>
       <c r="D151" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="E151" t="s">
         <v>11</v>
@@ -10018,7 +10027,7 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -10027,7 +10036,7 @@
         <v>121</v>
       </c>
       <c r="D152" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="E152" t="s">
         <v>11</v>
@@ -10035,7 +10044,7 @@
     </row>
     <row r="153" spans="1:5">
       <c r="A153" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -10052,7 +10061,7 @@
     </row>
     <row r="154" spans="1:5">
       <c r="A154" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -10061,7 +10070,7 @@
         <v>121</v>
       </c>
       <c r="D154" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="E154" t="s">
         <v>11</v>
@@ -10069,7 +10078,7 @@
     </row>
     <row r="155" spans="1:5">
       <c r="A155" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -10078,7 +10087,7 @@
         <v>121</v>
       </c>
       <c r="D155" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="E155" t="s">
         <v>11</v>
@@ -10086,7 +10095,7 @@
     </row>
     <row r="156" spans="1:5">
       <c r="A156" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -10095,7 +10104,7 @@
         <v>121</v>
       </c>
       <c r="D156" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="E156" t="s">
         <v>11</v>
@@ -10103,7 +10112,7 @@
     </row>
     <row r="157" spans="1:5">
       <c r="A157" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -10112,7 +10121,7 @@
         <v>121</v>
       </c>
       <c r="D157" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="E157" t="s">
         <v>11</v>
@@ -10120,7 +10129,7 @@
     </row>
     <row r="158" spans="1:5">
       <c r="A158" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -10129,7 +10138,7 @@
         <v>121</v>
       </c>
       <c r="D158" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="E158" t="s">
         <v>11</v>
@@ -10137,7 +10146,7 @@
     </row>
     <row r="159" spans="1:5">
       <c r="A159" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -10146,7 +10155,7 @@
         <v>121</v>
       </c>
       <c r="D159" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="E159" t="s">
         <v>11</v>
@@ -10154,7 +10163,7 @@
     </row>
     <row r="160" spans="1:5">
       <c r="A160" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -10163,7 +10172,7 @@
         <v>121</v>
       </c>
       <c r="D160" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="E160" t="s">
         <v>11</v>
@@ -10171,7 +10180,7 @@
     </row>
     <row r="161" spans="1:5">
       <c r="A161" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -10180,7 +10189,7 @@
         <v>121</v>
       </c>
       <c r="D161" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="E161" t="s">
         <v>11</v>
@@ -10188,7 +10197,7 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" t="s">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -10197,7 +10206,7 @@
         <v>121</v>
       </c>
       <c r="D162" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="E162" t="s">
         <v>11</v>
@@ -10205,7 +10214,7 @@
     </row>
     <row r="163" spans="1:5">
       <c r="A163" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -10214,7 +10223,7 @@
         <v>121</v>
       </c>
       <c r="D163" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="E163" t="s">
         <v>11</v>
@@ -10222,7 +10231,7 @@
     </row>
     <row r="164" spans="1:5">
       <c r="A164" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -10231,7 +10240,7 @@
         <v>121</v>
       </c>
       <c r="D164" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="E164" t="s">
         <v>11</v>
@@ -10239,7 +10248,7 @@
     </row>
     <row r="165" spans="1:5">
       <c r="A165" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -10248,7 +10257,7 @@
         <v>121</v>
       </c>
       <c r="D165" t="s">
-        <v>1030</v>
+        <v>1032</v>
       </c>
       <c r="E165" t="s">
         <v>11</v>
@@ -10256,7 +10265,7 @@
     </row>
     <row r="166" spans="1:5">
       <c r="A166" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -10265,7 +10274,7 @@
         <v>121</v>
       </c>
       <c r="D166" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="E166" t="s">
         <v>11</v>
@@ -10273,7 +10282,7 @@
     </row>
     <row r="167" spans="1:5">
       <c r="A167" t="s">
-        <v>1033</v>
+        <v>1035</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -10290,7 +10299,7 @@
     </row>
     <row r="168" spans="1:5">
       <c r="A168" t="s">
-        <v>1034</v>
+        <v>1036</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -10299,7 +10308,7 @@
         <v>121</v>
       </c>
       <c r="D168" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="E168" t="s">
         <v>11</v>
@@ -10307,7 +10316,7 @@
     </row>
     <row r="169" spans="1:5">
       <c r="A169" t="s">
-        <v>1036</v>
+        <v>1038</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -10316,7 +10325,7 @@
         <v>121</v>
       </c>
       <c r="D169" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="E169" t="s">
         <v>11</v>
@@ -10324,7 +10333,7 @@
     </row>
     <row r="170" spans="1:5">
       <c r="A170" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -10333,7 +10342,7 @@
         <v>121</v>
       </c>
       <c r="D170" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="E170" t="s">
         <v>11</v>
@@ -10341,7 +10350,7 @@
     </row>
     <row r="171" spans="1:5">
       <c r="A171" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -10358,7 +10367,7 @@
     </row>
     <row r="172" spans="1:5">
       <c r="A172" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -10367,7 +10376,7 @@
         <v>121</v>
       </c>
       <c r="D172" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="E172" t="s">
         <v>11</v>
@@ -10375,7 +10384,7 @@
     </row>
     <row r="173" spans="1:5">
       <c r="A173" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -10384,7 +10393,7 @@
         <v>121</v>
       </c>
       <c r="D173" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="E173" t="s">
         <v>11</v>
@@ -10392,7 +10401,7 @@
     </row>
     <row r="174" spans="1:5">
       <c r="A174" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -10401,7 +10410,7 @@
         <v>121</v>
       </c>
       <c r="D174" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="E174" t="s">
         <v>11</v>
@@ -10409,7 +10418,7 @@
     </row>
     <row r="175" spans="1:5">
       <c r="A175" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -10418,7 +10427,7 @@
         <v>121</v>
       </c>
       <c r="D175" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="E175" t="s">
         <v>11</v>
@@ -10426,7 +10435,7 @@
     </row>
     <row r="176" spans="1:5">
       <c r="A176" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -10435,7 +10444,7 @@
         <v>121</v>
       </c>
       <c r="D176" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="E176" t="s">
         <v>11</v>
@@ -10443,7 +10452,7 @@
     </row>
     <row r="177" spans="1:5">
       <c r="A177" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -10452,7 +10461,7 @@
         <v>121</v>
       </c>
       <c r="D177" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="E177" t="s">
         <v>11</v>
@@ -10460,7 +10469,7 @@
     </row>
     <row r="178" spans="1:5">
       <c r="A178" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -10469,7 +10478,7 @@
         <v>121</v>
       </c>
       <c r="D178" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="E178" t="s">
         <v>11</v>
@@ -10477,7 +10486,7 @@
     </row>
     <row r="179" spans="1:5">
       <c r="A179" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -10486,7 +10495,7 @@
         <v>121</v>
       </c>
       <c r="D179" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="E179" t="s">
         <v>11</v>
@@ -10494,7 +10503,7 @@
     </row>
     <row r="180" spans="1:5">
       <c r="A180" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -10503,7 +10512,7 @@
         <v>121</v>
       </c>
       <c r="D180" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="E180" t="s">
         <v>11</v>
@@ -10511,7 +10520,7 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -10520,7 +10529,7 @@
         <v>121</v>
       </c>
       <c r="D181" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="E181" t="s">
         <v>11</v>
@@ -10528,7 +10537,7 @@
     </row>
     <row r="182" spans="1:5">
       <c r="A182" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -10537,7 +10546,7 @@
         <v>121</v>
       </c>
       <c r="D182" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="E182" t="s">
         <v>11</v>
@@ -10545,7 +10554,7 @@
     </row>
     <row r="183" spans="1:5">
       <c r="A183" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -10554,7 +10563,7 @@
         <v>121</v>
       </c>
       <c r="D183" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="E183" t="s">
         <v>11</v>
@@ -10562,7 +10571,7 @@
     </row>
     <row r="184" spans="1:5">
       <c r="A184" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -10571,7 +10580,7 @@
         <v>121</v>
       </c>
       <c r="D184" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="E184" t="s">
         <v>11</v>
@@ -10579,7 +10588,7 @@
     </row>
     <row r="185" spans="1:5">
       <c r="A185" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -10588,7 +10597,7 @@
         <v>121</v>
       </c>
       <c r="D185" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="E185" t="s">
         <v>11</v>
@@ -10596,7 +10605,7 @@
     </row>
     <row r="186" spans="1:5">
       <c r="A186" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -10605,7 +10614,7 @@
         <v>121</v>
       </c>
       <c r="D186" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="E186" t="s">
         <v>11</v>
@@ -10613,7 +10622,7 @@
     </row>
     <row r="187" spans="1:5">
       <c r="A187" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -10622,7 +10631,7 @@
         <v>121</v>
       </c>
       <c r="D187" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="E187" t="s">
         <v>11</v>
@@ -10630,7 +10639,7 @@
     </row>
     <row r="188" spans="1:5">
       <c r="A188" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -10639,7 +10648,7 @@
         <v>121</v>
       </c>
       <c r="D188" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="E188" t="s">
         <v>11</v>
@@ -10647,7 +10656,7 @@
     </row>
     <row r="189" spans="1:5">
       <c r="A189" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -10656,7 +10665,7 @@
         <v>121</v>
       </c>
       <c r="D189" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="E189" t="s">
         <v>11</v>
@@ -10705,7 +10714,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -10714,7 +10723,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -10722,7 +10731,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -10731,7 +10740,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -10739,7 +10748,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -10748,7 +10757,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -10756,7 +10765,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -10765,7 +10774,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -10773,7 +10782,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -10790,7 +10799,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -10799,7 +10808,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -10807,7 +10816,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -10816,7 +10825,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -10824,7 +10833,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -10833,7 +10842,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -10841,7 +10850,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -10850,7 +10859,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -10858,7 +10867,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -10867,7 +10876,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -10875,7 +10884,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -10884,7 +10893,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -10892,7 +10901,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -10909,7 +10918,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -10918,7 +10927,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -10926,7 +10935,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -10935,7 +10944,7 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -10943,7 +10952,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -10952,7 +10961,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -10960,7 +10969,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -10969,7 +10978,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -10977,7 +10986,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -10994,7 +11003,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -11003,7 +11012,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -11011,7 +11020,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -11020,7 +11029,7 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -11028,7 +11037,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -11037,7 +11046,7 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -11045,7 +11054,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -11054,7 +11063,7 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -11062,7 +11071,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -11079,7 +11088,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -11096,7 +11105,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -11105,7 +11114,7 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -11113,7 +11122,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -11130,7 +11139,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -11139,7 +11148,7 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
@@ -11147,7 +11156,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -11156,7 +11165,7 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -11164,7 +11173,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -11181,7 +11190,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -11190,7 +11199,7 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -11198,7 +11207,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -11215,7 +11224,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -11224,7 +11233,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="E32" t="s">
         <v>11</v>
@@ -11232,7 +11241,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -11249,7 +11258,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -11266,7 +11275,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -11275,7 +11284,7 @@
         <v>109</v>
       </c>
       <c r="D35" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
@@ -14555,7 +14564,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -15026,7 +15035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>415</v>
       </c>
@@ -15036,10 +15045,13 @@
       <c r="C28" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -15047,16 +15059,22 @@
       <c r="C29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
+      </c>
+      <c r="D30" s="2">
+        <v>72965173</v>
       </c>
     </row>
   </sheetData>
@@ -15102,7 +15120,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -15111,7 +15129,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -15119,7 +15137,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -15128,7 +15146,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -15136,7 +15154,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -15145,7 +15163,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -15153,7 +15171,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -15162,7 +15180,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -15170,7 +15188,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -15179,7 +15197,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -15187,7 +15205,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -15196,7 +15214,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -15204,7 +15222,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -15221,7 +15239,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -15230,7 +15248,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -15238,7 +15256,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -15247,7 +15265,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -15255,7 +15273,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -15264,7 +15282,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -15272,7 +15290,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -15281,7 +15299,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -15289,7 +15307,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -15298,7 +15316,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -15347,7 +15365,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -15356,7 +15374,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -15364,7 +15382,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -15373,7 +15391,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
